--- a/anki_deque/일본어_문법_무작정_따라하기.xlsx
+++ b/anki_deque/일본어_문법_무작정_따라하기.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김주호\Desktop\日本語\Anki_Deque\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\nihongo\anki_deque\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375BD5D9-6E7C-4F66-BA9F-23249ED1178A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5925D3B-8A9C-4B2D-AC4C-AC8F044EE984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AFDB6C44-8B52-40D1-8EDC-7E37820CEB62}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="961">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="1102">
   <si>
     <t>その人は私の母ではなかった。</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -8289,22 +8289,6 @@
     </r>
   </si>
   <si>
-    <t>～てみる</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>～ていく</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>～てくる</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>～ておく</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>～(よ)うと思う (~하려고 생각하다) [지금 당장의 생각]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -8349,15 +8333,991 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>～ている</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ている → てる [구어체]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>～てある</t>
+    <t>～てみる (~해 보다)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>父の手料理を食べてみたい。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>電車に乗っていった。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>薬を飲んできました。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戦争やテロでたくさんの人が死んでいく。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>その子はだんだんお父さんに似てきました。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>さっきまで雨が降っていたが、晴れてきた。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>～てくる (~하기 시작하다) [화자와 상관 없는 자연적인 일]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>～てくる (~해 오다)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>～ていく (~해 가다)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>～ていく (~하고 가다)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>～てくる (~하고 오다)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>～ておく (~해 두다)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>何にするか、決めておきました。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>～ている (~하고 있다)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>プロペラがグルグル回っている。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>～ている (~하고 있다) [습관, 반복]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界では1日に20万人ほどの赤ん坊が生まれています。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1週間に3日、フィットネスクラブに通ってる。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>その虫はまだ生きている。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>風がよく通るように、窓が開けてあります。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>～てある (~해 있다) &lt;타동사て형 + ある&gt; [상태 + 의도]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>電気をつけてある。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>～を～てある (~해 놓았다) &lt;타동사て형 + ある&gt; [상태 + 의도]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>今、昼ご飯を食べているところ。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>～ているところだ (한창 ~하는/하고 있는 중이다) [진행]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>母は太田さんに忘れ物を届けてあげる。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>斉藤さんは私に写真を送ってくれました。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>友達は先生に本当のことを話して差し上げた。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>会長が私のおじに声をかけてくださいました。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>私は犬をほめてやりました。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>私はタクシーの運転手さんに急いでもらった。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保証人さんに部屋を探していただきました。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">50. 동사의 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>た</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>형에 연결되는 표현</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>お弁当を食べた後で、一緒に散歩に行きましょう。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>～てあげる (~해 주다) ['나'에게서 가까운 사람이 먼 사람에게] ('나'가 주어일 때는 무례한 표현)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>～てくれる (~해 주다) ['나'에게서 먼 사람이 가까운 사람에게]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>～て差し上げる (~해 드리다) [겸양]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>～てくださる (~해 드리다) [겸양]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>～てやる (~해 주다) [비격식, 낮은 존재에게]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>～てもらう (~해 받다) (A가 B로부터 ~해 받다 → B가 A에게 ~해 주다)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>～ていただく (~해 받다) (A가 B로부터 ~해 받다 → B가 A에게 ~해 주시다) [겸양]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>～ている (~해 있다) &lt;자동사て형 + いる&gt; [상태]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>～たり～たりする (~하기도 하고 ~하기도 하다, ~하거나 ~하거나 하다) &lt;명사/형용사/동사의 보통체형 과거형 + り + する&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>私は寝る時間が9時だったり12時だったりする。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>秋は暑ったり寒かったりします。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>休みの日は本を読んだりテレビを見たりする。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>久しぶりに会った友達は昔のままだった。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原田さんからはずっと連絡がないままだ。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>祖父が3日前に出かけたまま帰ってません。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ベルギーの優勝が決まったところだ。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>このサイトは昨日見つけたばかりです。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>50. 동사의 た형에 연결되는 표현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>～たまま (~한 채) &lt;명사+の/형용사/동사た형 + まま&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>～たところだ (막 ~했다, ~하자마자이다) [직후]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>～たばかりだ (막 ~했다, ~한 지 얼마 되지 않았다) [주관적]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>51. 모든 품사의 보통체형에 연결되는 표현</t>
+  </si>
+  <si>
+    <t>51. 모든 품사의 보통체형에 연결되는 표현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>知っている의 부정 → 知らない (知っていない(X))</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A：あの人、知ってますか。B：いいえ、知りません。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火事の時は、すぐに119番に電話をしないと。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>来るとき、連絡をください。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>忙しくないときに会おう。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宮本さんは留守だって思う。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>石田さんはご両親と一緒に住んでいると思います。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>みんな「お前には無理だ。」と言いました。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>千葉さんはいかないって言ったよ。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>はじめまして。曾根と申します。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>この花は日本語で桜という。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>けんかの原因は私だったという話すを聞いた。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>あの人はきっと外国人だろう。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>飼っていた犬が死んで、悲しかったでしょう。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>その教授は専門分野が違うだろう？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>その本は見つからなかったでしょう？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>約束の時間に間に合わないかもしれません。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>～た後で (~한 후에) [전후 관계가 명확한 내용일 경우 어색]（例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="1"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>歯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を磨いた後で</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="1"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>寝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ます。(X)、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>歯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を磨いてから</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>寝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ます。(O)）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>～とき (~(할) 때) &lt;동사의 보통체형/명사+の/형용사 + とき&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>～と思う (~라고 생각하다, ~한 것 같다, ~할 것 같다)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>～って思う (~라고 생각하다, ~한 것 같다, ~할 것 같다) [구어체]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>～と言う (~라고 (말)하다) &lt;보통체형/정중체형 + と + 言う&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>～という (~라고 하다) [이름 소개] &lt;고유명사 + と + いう&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>～と申す (~라고 합니다) [이름 소개, 겸양]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>～って言う (~라고 (말)하다) [구어체]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>～という (~라는/라고 하는) &lt;～という + 명사&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>～だろう (~할 것이다) [억양을 내려서 말함] [회화에서는 남자 말투] &lt;보통체형/명사/な형용사(な삭제) + だろう&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>～でしょう (~할 것입니다) [억양을 내려서 말함] &lt;보통체형/명사/な형용사(な삭제) + でしょう&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>～だろう？ (~지?) [억양을 올려서 말함] [회화에서는 남자 말투] &lt;보통체형/명사/な형용사(な삭제) + だろう？&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>～でしょう？ (~지요?) [억양을 올려서 말함] &lt;보통체형/명사/な형용사(な삭제) + でしょう？&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>～かもしれない (~할지도 모른다) &lt;보통체형/명사/な형용사(な삭제) + かもしれない&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>～か (~하는지) &lt;의문사 + 보통체형/명사/な형용사(な삭제) + か&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>～かどうか (~하는지 어떤지) &lt;보통체형/명사/な형용사(な삭제) + かどうか&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>～のに (~하는데(도), ~한데(도)) &lt;보통체형/명사+な/な형용사(~な) + のに&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>～ため(に) (~하기 때문에) [ために가 더 편한 말투] &lt;보통체형/명사+な/な형용사(~な) + ため(に)&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>どの人が担当者か聞いてくる。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほかの人も行くかどうか、知りません。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>夕べ寝られなかったのに、今眠くないです。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生が皆一生懸命ななため、やめろと言えない。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A：電話をなくしていしまいました。B：それで、電話に出られなかったんですね。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日は早く帰るね。結婚記念日なんだ。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>パスポートも免許証もなくて、申し込みができなかった。つまり、何か身分証が必要だったのだ。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうするのがいいのです。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>～んだ/のだ (~거든) [설명] &lt;보통체형/명사+な/な형용사(~な) + んだ/のだ&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>～んだ/のだ (~하는/한 것이다) [환언] &lt;보통체형/명사+な/な형용사(~な) + んだ/のだ&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>～んだ/のだ (~하는/한 것이다) [주장] &lt;보통체형/명사+な/な형용사(~な) + んだ/のだ&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>アフガニスタンへの旅行は危ないの？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>誰に眼鏡を壊されたんですか。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出発は5日なんですが、よろしいですか。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>～の？ (~하는/한 거야?) [확인, 설명 요구] &lt;보통체형/명사+な/な형용사(~な) + の？&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>～んですか/のですか (~하는/한 겁니까?) [확인, 설명 요구] &lt;보통체형/명사+な/な형용사(~な) + んですか/のですか&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>～んですが/のですが (~하는데(요)/~한데(요)) [서론] &lt;보통체형/명사+な/な형용사(~な) + んですが/のですが&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>橋本さんの息子さんはもう大学生のはずだ。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>今沸いたばかりのお湯だから、熱くないはずがない。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>遊びに行くような気分で言った。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>この映画の主人公みたいに生きてみたいです。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近、フィギュアスケートのファンが増えたようです。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>どうも風邪をひいたみたいです。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>～ようだ (~하는/한 것 같다) &lt;보통체형/명사+の/な형용사(~な) + ようだ&gt; [직접적 경험에 의한 추측, 완곡한 표현, 격식]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>靴の上に靴下をはくと、氷の上でも滑らないらしいです。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>～そうだ (~라고 하다) [정보 전달]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷さんに集まる場所と時間を知らせたそうです。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>52. 비교할 때 쓰는 표현</t>
+  </si>
+  <si>
+    <t>52. 비교할 때 쓰는 표현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>～んだ/のだ (~하는/한 것이다) [납득] &lt;보통체형/명사+な/な형용사(~な) + んだ/のだ&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>～はずだ (분명히/당연히 ~할 것이다) &lt;보통체형/명사+の/な형용사(~な) + はずだ&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>～はず(が/は)ない (~할 리(가/는) 없다) &lt;보통체형/명사+の/な형용사(~な) + はず(が/は)ない&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>～ようだ (~ 같다) [격식] &lt;명사+の/동사 보통체형 + ようだ(な형용사 활용)&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>～みたいだ (~ 같다) &lt;명사/동사 보통체형 + みたいだ(な형용사 활용)&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>～みたいだ (~하는/한 것 같다) &lt;보통체형/명사/な형용사(な삭제) + みたいだ&gt; [직접적 경험에 의한 추측, 완곡한 표현]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>～らしい (~하는/한 모양이다) &lt;보통체형/명사/な형용사(な삭제) + らしい&gt; [간접적 경험에 의한 추측]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>～と～と、どちらの方が～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>～の方が～ (~와 ~ 중, 어느 쪽이 ~? / ~가 더 ~)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>～の中で～が一番～？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>～が一番～ (~ 중에서 ~가 제일 ~? / ~가 제일 ~)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>都市ガスは空気より軽いです。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>東京の料理より大阪の料理の方が味が薄い。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A：縦と横と、どちらが長いですか。B：縦の方が長いです。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本では、東洋医学は西洋医学ほど人気がない。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A：家族の中でだれが一番背が高いですか。B：弟が一番背が高いです。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>53. 긍정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부정이 짝이 되는 표현</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>～は～より～ (~는 ~보다 ~) &lt;명사/동사 보통체형 + より&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>～より～の方が～ (~보다 ~가 더 ~) &lt;명사+の/な형용사(～な)/보통체형 + 方が&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>～ほど～ない (~만큼 ~하지 않다) &lt;명사/동사 보통체형 + ほど + 부정&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>～つもりだ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ないつもりだ</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>～た方がいい</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ない方がいい</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>～てもいい</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>なくてもいい</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>てはいけない</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>～ても構わない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>なくても構わない</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>～ことがある</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ないことがある</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>たことがある</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>～よう(に)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・ないよう</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>～ように言う・ないように言う</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -8365,7 +9325,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8438,6 +9398,29 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="1"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -8461,7 +9444,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8478,6 +9461,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8814,16 +9800,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F12623-A050-4EC5-A463-F2AFE4519671}">
-  <dimension ref="A1:E461"/>
+  <dimension ref="A1:E536"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A442" workbookViewId="0">
-      <selection activeCell="B446" sqref="B446"/>
+    <sheetView tabSelected="1" topLeftCell="B511" workbookViewId="0">
+      <selection activeCell="C537" sqref="C537"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="74.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="37.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="84.375" style="4" customWidth="1"/>
     <col min="3" max="3" width="114.75" style="3" customWidth="1"/>
     <col min="4" max="4" width="53.625" style="3" customWidth="1"/>
     <col min="5" max="5" width="41.375" style="1" customWidth="1"/>
@@ -13686,7 +14672,7 @@
         <v>928</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.3">
@@ -13697,7 +14683,7 @@
         <v>930</v>
       </c>
       <c r="C441" s="3" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.3">
@@ -13708,7 +14694,7 @@
         <v>929</v>
       </c>
       <c r="C442" s="3" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.3">
@@ -13719,7 +14705,7 @@
         <v>934</v>
       </c>
       <c r="C443" s="3" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.3">
@@ -13730,7 +14716,7 @@
         <v>932</v>
       </c>
       <c r="C444" s="3" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.3">
@@ -13741,7 +14727,7 @@
         <v>933</v>
       </c>
       <c r="C445" s="3" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.3">
@@ -13763,7 +14749,7 @@
         <v>935</v>
       </c>
       <c r="C447" s="3" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.3">
@@ -13774,7 +14760,7 @@
         <v>937</v>
       </c>
       <c r="C448" s="3" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.3">
@@ -13785,7 +14771,7 @@
         <v>939</v>
       </c>
       <c r="C449" s="3" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.3">
@@ -13796,7 +14782,7 @@
         <v>940</v>
       </c>
       <c r="C450" s="3" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.3">
@@ -13807,61 +14793,860 @@
         <v>941</v>
       </c>
       <c r="C451" s="3" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A452" s="5" t="s">
+        <v>931</v>
+      </c>
+      <c r="B452" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="C452" s="3" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A453" s="5" t="s">
+        <v>942</v>
+      </c>
+      <c r="B453" s="4" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C452" s="3" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C453" s="3" t="s">
-        <v>944</v>
+        <v>965</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A454" s="5" t="s">
+        <v>942</v>
+      </c>
+      <c r="B454" s="4" t="s">
+        <v>958</v>
+      </c>
       <c r="C454" s="3" t="s">
-        <v>945</v>
+        <v>966</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A455" s="5" t="s">
+        <v>942</v>
+      </c>
+      <c r="B455" s="4" t="s">
+        <v>959</v>
+      </c>
       <c r="C455" s="3" t="s">
-        <v>945</v>
+        <v>964</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A456" s="5" t="s">
+        <v>942</v>
+      </c>
+      <c r="B456" s="4" t="s">
+        <v>960</v>
+      </c>
       <c r="C456" s="3" t="s">
-        <v>946</v>
+        <v>963</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A457" s="5" t="s">
+        <v>942</v>
+      </c>
+      <c r="B457" s="4" t="s">
+        <v>961</v>
+      </c>
       <c r="C457" s="3" t="s">
-        <v>958</v>
+        <v>962</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A458" s="5" t="s">
+        <v>942</v>
+      </c>
+      <c r="B458" s="4" t="s">
+        <v>968</v>
+      </c>
       <c r="C458" s="3" t="s">
-        <v>958</v>
+        <v>967</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A459" s="5" t="s">
+        <v>942</v>
+      </c>
+      <c r="B459" s="4" t="s">
+        <v>970</v>
+      </c>
       <c r="C459" s="3" t="s">
-        <v>959</v>
+        <v>969</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A460" s="5" t="s">
+        <v>942</v>
+      </c>
+      <c r="B460" s="4" t="s">
+        <v>972</v>
+      </c>
       <c r="C460" s="3" t="s">
-        <v>958</v>
+        <v>971</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A461" s="5" t="s">
+        <v>942</v>
+      </c>
+      <c r="B461" s="4" t="s">
+        <v>973</v>
+      </c>
       <c r="C461" s="3" t="s">
-        <v>960</v>
+        <v>954</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A462" s="5" t="s">
+        <v>942</v>
+      </c>
+      <c r="B462" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C462" s="3" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A463" s="5" t="s">
+        <v>942</v>
+      </c>
+      <c r="B463" s="4" t="s">
+        <v>974</v>
+      </c>
+      <c r="C463" s="3" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A464" s="5" t="s">
+        <v>942</v>
+      </c>
+      <c r="B464" s="4" t="s">
+        <v>975</v>
+      </c>
+      <c r="C464" s="3" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A465" s="5" t="s">
+        <v>942</v>
+      </c>
+      <c r="B465" s="4" t="s">
+        <v>977</v>
+      </c>
+      <c r="C465" s="3" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A466" s="5" t="s">
+        <v>942</v>
+      </c>
+      <c r="B466" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="C466" s="3" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A467" s="5" t="s">
+        <v>942</v>
+      </c>
+      <c r="B467" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="C467" s="3" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A468" s="5" t="s">
+        <v>942</v>
+      </c>
+      <c r="B468" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="C468" s="3" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A469" s="5" t="s">
+        <v>942</v>
+      </c>
+      <c r="B469" s="4" t="s">
+        <v>983</v>
+      </c>
+      <c r="C469" s="3" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A470" s="5" t="s">
+        <v>942</v>
+      </c>
+      <c r="B470" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="C470" s="3" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A471" s="5" t="s">
+        <v>942</v>
+      </c>
+      <c r="B471" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="C471" s="3" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A472" s="5" t="s">
+        <v>942</v>
+      </c>
+      <c r="B472" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="C472" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A473" s="5" t="s">
+        <v>942</v>
+      </c>
+      <c r="B473" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="C473" s="3" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A474" s="5" t="s">
+        <v>988</v>
+      </c>
+      <c r="B474" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="C474" s="3" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A475" s="5" t="s">
+        <v>988</v>
+      </c>
+      <c r="B475" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C475" s="3" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A476" s="5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B476" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C476" s="3" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A477" s="5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B477" s="4" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C477" s="3" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A478" s="5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B478" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C478" s="3" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A479" s="5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B479" s="4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C479" s="3" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A480" s="5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B480" s="4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C480" s="3" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A481" s="5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B481" s="4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C481" s="3" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A482" s="5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B482" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C482" s="3" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A483" s="5" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B483" s="4" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C483" s="3" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A484" s="5" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B484" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C484" s="3" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A485" s="5" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B485" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C485" s="3" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A486" s="5" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B486" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C486" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A487" s="5" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B487" s="4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C487" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A488" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B488" s="4" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C488" s="3" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A489" s="5" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B489" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C489" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A490" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B490" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C490" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A491" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B491" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C491" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A492" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B492" s="4" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C492" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A493" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B493" s="4" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C493" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A494" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B494" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C494" s="3" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A495" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B495" s="4" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C495" s="3" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A496" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B496" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C496" s="3" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A497" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B497" s="4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C497" s="3" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A498" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B498" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C498" s="3" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A499" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B499" s="4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C499" s="3" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A500" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B500" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C500" s="3" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A501" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B501" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C501" s="3" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A502" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B502" s="4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C502" s="3" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A503" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B503" s="4" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C503" s="3" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A504" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B504" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C504" s="3" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A505" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B505" s="4" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C505" s="3" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A506" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B506" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C506" s="3" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A507" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B507" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C507" s="3" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A508" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B508" s="4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C508" s="3" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A509" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B509" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C509" s="3" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A510" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B510" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C510" s="3" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A511" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B511" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C511" s="3" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A512" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B512" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C512" s="3" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A513" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B513" s="4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C513" s="3" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A514" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B514" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C514" s="3" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A515" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B515" s="4" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C515" s="3" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A516" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B516" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C516" s="3" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A517" s="5" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B517" s="4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C517" s="3" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A518" s="5" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B518" s="4" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C518" s="3" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A519" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B519" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C519" s="3" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A520" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B520" s="4" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C520" s="3" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A521" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B521" s="4" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C521" s="3" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A522" s="5" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C522" s="3" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C523" s="3" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C524" s="3" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C525" s="3" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C526" s="3" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C527" s="3" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C528" s="3" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="529" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C529" s="3" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="530" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C530" s="3" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="531" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C531" s="3" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="532" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C532" s="3" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="533" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C533" s="3" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="534" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C534" s="3" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="535" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C535" s="3" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="536" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C536" s="6" t="s">
+        <v>1101</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>